--- a/Kitap1.xlsx
+++ b/Kitap1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONSTER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubReps\SDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -35,10 +35,55 @@
     <t>Start Date</t>
   </si>
   <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t>SDPv2</t>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Risk Analysis</t>
+  </si>
+  <si>
+    <t>Work Analysis</t>
+  </si>
+  <si>
+    <t>Functional Specification Document</t>
+  </si>
+  <si>
+    <t>Design Specification Document</t>
+  </si>
+  <si>
+    <t>GUI Design</t>
+  </si>
+  <si>
+    <t>Map Design</t>
+  </si>
+  <si>
+    <t>Character Design</t>
+  </si>
+  <si>
+    <t>SFX Design</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>3D Modelling</t>
+  </si>
+  <si>
+    <t>Model Testing</t>
+  </si>
+  <si>
+    <t>Gameplay Testing</t>
   </si>
 </sst>
 </file>
@@ -48,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +108,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,10 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,11 +227,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sayfa1!$B$1</c:f>
+              <c:f>Sayfa1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Start Date</c:v>
+                  <c:v>Task</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -192,83 +247,113 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sayfa1!$A$2:$A$12</c:f>
+              <c:f>Sayfa1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>SDP</c:v>
+                  <c:v>Planning</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SDPv2</c:v>
+                  <c:v>Functional Specification Document</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Work Analysis</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Risk Analysis</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Design</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Design Specification Document</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>GUI Design</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>Map Design</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>Character Design</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>SFX Design</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>Development</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Scripting</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3D Modelling</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gameplay Testing</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Model Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$B$2:$B$12</c:f>
+              <c:f>Sayfa1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43026</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>43026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43032</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>43033</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>43035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43037</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>43040</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>43047</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43054</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43061</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43068</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43075</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43082</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43089</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>43096</c:v>
+                  <c:v>43043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43043</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="m/d/yyyy">
+                  <c:v>43053</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="m/d/yyyy">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="m/d/yyyy">
+                  <c:v>43063</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="m/d/yyyy">
+                  <c:v>43065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,83 +391,113 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sayfa1!$A$2:$A$12</c:f>
+              <c:f>Sayfa1!$A$2:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>SDP</c:v>
+                  <c:v>Planning</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SDPv2</c:v>
+                  <c:v>Functional Specification Document</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Work Analysis</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Risk Analysis</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Design</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Design Specification Document</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>GUI Design</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>Map Design</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>Character Design</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>SFX Design</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>Development</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Scripting</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3D Modelling</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gameplay Testing</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Model Testing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sayfa1!$C$2:$C$12</c:f>
+              <c:f>Sayfa1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,16 +1206,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1425,23 +1540,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1452,129 +1573,230 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>43026</v>
       </c>
       <c r="C2" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43026</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43029</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43031</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43032</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43032</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43033</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43035</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43037</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43040</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43043</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>43053</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>43063</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43063</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43065</v>
+      </c>
+      <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>43033</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43040</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43047</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43054</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43061</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43068</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43075</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43082</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43089</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43096</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
